--- a/DoE_Exp_Table_IVT_1FoM.xlsx
+++ b/DoE_Exp_Table_IVT_1FoM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOA-IVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOA-IVT-1FoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC47D9A-4A62-4C48-82AC-D3BC9F024E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F2EB5-C902-4603-9227-A28BCCB1AD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/DoE_Exp_Table_IVT_1FoM.xlsx
+++ b/DoE_Exp_Table_IVT_1FoM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOA-IVT-1FoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaxi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F2EB5-C902-4603-9227-A28BCCB1AD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07703054-55B5-4151-A027-7A2C42BF000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G3">
         <v>-1</v>
